--- a/biology/Microbiologie/Xystonellidae/Xystonellidae.xlsx
+++ b/biology/Microbiologie/Xystonellidae/Xystonellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Xystonellidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Xystonella, dérivé du grec ancien ξυστον / xyston, « javelot ; javeline », et du suffixe latin -ella, petite, littéralement « petite javeline », en référence à la forme élancée de la lorica de cet organisme.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brandt en 1906 décrit ainsi le genre type qu'il considère à l'époque comme un sous genre : 
-« Sous-genre Xystonella, Lancettes. Étuis délicats, pâles et pour la plupart mous, de forme élancée en forme de gobelet, équipés d'une véritable lance ou d'une modification de celle-ci à l'extrémité aborale. La structure est principalement celle (du genre) Cyttarocylis, mais certaines espèces n'ont que de fines alvéoles primaires. Quelques-uns de ces organismes ― principalement à cause de la forte réfraction de la lumière de l'intérieur et de l'extérieur de la lamelle et à cause de l'absence des réticules secondaires — ont été provisoirement placés (dans le genre) Undella[1]. »
+« Sous-genre Xystonella, Lancettes. Étuis délicats, pâles et pour la plupart mous, de forme élancée en forme de gobelet, équipés d'une véritable lance ou d'une modification de celle-ci à l'extrémité aborale. La structure est principalement celle (du genre) Cyttarocylis, mais certaines espèces n'ont que de fines alvéoles primaires. Quelques-uns de ces organismes ― principalement à cause de la forte réfraction de la lumière de l'intérieur et de l'extérieur de la lamelle et à cause de l'absence des réticules secondaires — ont été provisoirement placés (dans le genre) Undella. »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (20 octobre 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (20 octobre 2022) :
 Parafavella Kofoid &amp; Campbell, 1929
 Parundella Jörgensen, 1924
 Xystonella Brandt, 1906
@@ -609,9 +627,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Xystonellidae Kofoid &amp; Campbell, 1929[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Xystonellidae Kofoid &amp; Campbell, 1929.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Karl Brandt (de) Die Tintinnodeen der Plankton-Expedition. (Ergebnisse der Plankton-Expedition der Humboldt-Stiftung. Bd III. L. a.). (Lipsius &amp; Tischer), Kiel &amp; Leipzig, 1906: Unpaginated. [Zoological Record Volume 43]</t>
         </is>
